--- a/red teaming datasets/azure_generated_GPT4o_new2.xlsx
+++ b/red teaming datasets/azure_generated_GPT4o_new2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendrickkoh/Desktop/University/FYP/Red teaming preparation/red teaming datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AEBCBC-22CF-CD45-B3ED-7121740C4BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE64B2B-4A4D-E246-935C-F4E180A3EF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -950,7 +950,7 @@
     <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
